--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Files\GitHub\MasterThesis-DVRP\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE680F-FCBE-4E69-97AA-035031FBD0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AA45B7-28F6-4AFB-BF5F-C1DB7B418AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Tabu Search</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Ant Colony System(with conservation 0.7)</t>
+  </si>
+  <si>
+    <t>Ant Colony System(with conservation 0.3, 500 iterations)</t>
   </si>
 </sst>
 </file>
@@ -175,15 +178,15 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="I32" sqref="I32:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,42 +487,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="T1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -608,7 +611,7 @@
       <c r="H3">
         <v>707</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>676.6</v>
       </c>
       <c r="J3">
@@ -676,7 +679,7 @@
       <c r="H4">
         <v>797</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>722.6</v>
       </c>
       <c r="J4">
@@ -1537,97 +1540,97 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f t="shared" ref="B17:H17" si="0">SUM(B3:B16)</f>
         <v>70</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>10440</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>10833</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>10622.55</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>14499</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
         <v>15893</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f>SUM(I3:I16)</f>
         <v>15112.2</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f t="shared" ref="J17:M17" si="1">SUM(J3:J16)</f>
         <v>4</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <f t="shared" si="1"/>
         <v>13958</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f t="shared" si="1"/>
         <v>15427</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <f t="shared" si="1"/>
         <v>14712.600000000002</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <f t="shared" ref="N17" si="2">SUM(N3:N16)</f>
         <v>5</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <f t="shared" ref="O17" si="3">SUM(O3:O16)</f>
         <v>14317</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
         <f t="shared" ref="P17:Q17" si="4">SUM(P3:P16)</f>
         <v>16870</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <f t="shared" si="4"/>
         <v>15634.8</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <f t="shared" ref="R17" si="5">SUM(R3:R16)</f>
         <v>10</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
         <f t="shared" ref="S17" si="6">SUM(S3:S16)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="4">
         <f t="shared" ref="T17:U17" si="7">SUM(T3:T16)</f>
         <v>13557</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="4">
         <f t="shared" si="7"/>
         <v>15293</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <f t="shared" ref="V17" si="8">SUM(V3:V16)</f>
         <v>14361.4</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="4">
         <f t="shared" ref="W17" si="9">SUM(W3:W16)</f>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f>I17-I11</f>
         <v>13647.2</v>
       </c>
@@ -1682,8 +1685,245 @@
         <v>7441.6</v>
       </c>
     </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>665</v>
+      </c>
+      <c r="H25">
+        <v>698</v>
+      </c>
+      <c r="I25">
+        <v>676.8</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>695</v>
+      </c>
+      <c r="H26">
+        <v>743</v>
+      </c>
+      <c r="I26">
+        <v>720.66666666666595</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>778</v>
+      </c>
+      <c r="H27">
+        <v>985</v>
+      </c>
+      <c r="I27">
+        <v>882</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>877</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28">
+        <v>955.6</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>679</v>
+      </c>
+      <c r="H29">
+        <v>775</v>
+      </c>
+      <c r="I29">
+        <v>734.2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>738</v>
+      </c>
+      <c r="H30">
+        <v>842</v>
+      </c>
+      <c r="I30">
+        <v>777.2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>735</v>
+      </c>
+      <c r="H31">
+        <v>797</v>
+      </c>
+      <c r="I31">
+        <v>764.8</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>1076</v>
+      </c>
+      <c r="H32">
+        <v>1238</v>
+      </c>
+      <c r="I32">
+        <v>1159.5999999999999</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>1151</v>
+      </c>
+      <c r="H33">
+        <v>1317</v>
+      </c>
+      <c r="I33">
+        <v>1225</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>1288</v>
+      </c>
+      <c r="H34">
+        <v>1407</v>
+      </c>
+      <c r="I34">
+        <v>1357</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>1365</v>
+      </c>
+      <c r="H35">
+        <v>1486</v>
+      </c>
+      <c r="I35">
+        <v>1430.8</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>1248</v>
+      </c>
+      <c r="H37">
+        <v>1248</v>
+      </c>
+      <c r="I37">
+        <v>1248</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G38" s="1">
+        <v>1256</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1308</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1279</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G39" s="4">
+        <f t="shared" ref="G39:J39" si="10">SUM(G25:G38)</f>
+        <v>12550</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="10"/>
+        <v>13843</v>
+      </c>
+      <c r="I39" s="6">
+        <f>SUM(I25:I38)</f>
+        <v>13209.666666666664</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="O1:R1"/>
